--- a/2 Formulas and Functions/Formulas and Functions - 4. IS Functions.xlsx
+++ b/2 Formulas and Functions/Formulas and Functions - 4. IS Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\4. Formulas and Functions\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/2 Formulas and Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52CC383B-33BD-438D-916B-6FE4A4AB38DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{52CC383B-33BD-438D-916B-6FE4A4AB38DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BD80B3-A260-454B-8B2C-1F95C765611C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -176,10 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -190,8 +190,8 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +534,10 @@
         <f>E2*D2</f>
         <v>44400</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="b">
+        <f>ISBLANK(E2)</f>
+        <v>0</v>
+      </c>
       <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
@@ -567,7 +570,10 @@
         <f t="shared" ref="F3:F30" si="0">E3*D3</f>
         <v>31000</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="b">
+        <f>ISBLANK(E3)</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
@@ -600,7 +606,10 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="b">
+        <f t="shared" ref="G4:G30" si="1">ISBLANK(E4)</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="10" t="s">
         <v>14</v>
       </c>
@@ -633,7 +642,10 @@
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -655,7 +667,10 @@
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -675,7 +690,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -697,7 +715,10 @@
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -719,7 +740,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -741,7 +765,10 @@
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -761,7 +788,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -783,7 +813,10 @@
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -805,7 +838,10 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -827,7 +863,10 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -849,7 +888,10 @@
         <f t="shared" si="0"/>
         <v>39600</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -871,7 +913,10 @@
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -893,7 +938,10 @@
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -915,7 +963,10 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
@@ -937,7 +988,10 @@
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
@@ -959,7 +1013,10 @@
         <f t="shared" si="0"/>
         <v>38400</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
@@ -979,7 +1036,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
@@ -1001,7 +1061,10 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -1023,7 +1086,10 @@
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
@@ -1045,7 +1111,10 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -1067,7 +1136,10 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
@@ -1089,7 +1161,10 @@
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
@@ -1109,7 +1184,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
@@ -1131,7 +1209,10 @@
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
@@ -1153,7 +1234,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
@@ -1175,7 +1259,10 @@
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
